--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2413470.759626378</v>
+        <v>2520700.201024466</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9230671.775246808</v>
+        <v>9244120.220626455</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>236.4637325012091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.7617820786558</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.55303430533229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>171.1971464172144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>314.8245872771042</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>53.81298529739924</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>36.2099418980436</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>134.0389899623023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.407981133702</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>325.0198107196887</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>77.31354443380417</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>230.8127283073657</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699814</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>31.26260713376568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>18.50276072356668</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>63.8415564125923</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.32649042089825</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>20.9284728855285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.6329842920045</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766866</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.9888698962426</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>23.62554568141267</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>145.9348656155987</v>
       </c>
       <c r="U34" t="n">
-        <v>106.8299898147636</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>132.2740511637357</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>18.70843787977268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>51.36569740310337</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2231.276441056584</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056584</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>2231.276441056584</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193021</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507739</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>1439.929500665687</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>2389.412917877717</v>
       </c>
       <c r="X4" t="n">
-        <v>1381.76163186861</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="Y4" t="n">
-        <v>1160.96905272508</v>
+        <v>1940.630787836169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1638.360256348807</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>503.0559362070082</v>
       </c>
       <c r="E5" t="n">
-        <v>934.567370137326</v>
+        <v>117.2676836087639</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477183</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927148</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993391</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993391</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.56518664982</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.56518664982</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2415.09942838874</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.960096412929</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1599.870421187584</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1599.870421187584</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915318</v>
+        <v>1376.89194038232</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915318</v>
+        <v>1087.773602886158</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>749.4796705208573</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>391.2139719141068</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>391.2139719141068</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531614</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555802</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995009</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>294.723245171594</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592583</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>144.6066057592583</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>144.6066057592583</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971288</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732708</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297407</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="11">
@@ -5030,46 +5032,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5106,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7297566303649</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797183</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5510,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5597,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
         <v>949.9304447718133</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5735,67 +5737,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2951.542595286849</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C22" t="n">
-        <v>2782.606412358942</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>2632.489772946606</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>2484.576679364213</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398592</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053496</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076437</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214749</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177788</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279771</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136241</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>920.9817565737817</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>770.8651171614459</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>622.9520235790528</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>476.0620760811424</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>308.8659767960224</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021996</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6719,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2049.653590320296</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1760.578363664494</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1505.893875458607</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1216.476705421646</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>988.4871545236284</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192589</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,7 +7198,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,61 +7402,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,10 +7666,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2395.078540748843</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2395.078540748843</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143846</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>268.0202376130243</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.505489761039</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>8.661728554219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194126</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>71.47058471168958</v>
       </c>
       <c r="U34" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>34.97276993489209</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.00954930701832</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>807835.0531978243</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>807835.0531978243</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597546</v>
@@ -26350,10 +26352,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121051</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605436</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808341</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808333</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731944</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732013</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732057</v>
+        <v>8117.312426732029</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426732098</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732025</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732042</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732067</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.184632808</v>
+        <v>-705700.1846328077</v>
       </c>
       <c r="C6" t="n">
-        <v>237630.3422732378</v>
+        <v>409051.5989431116</v>
       </c>
       <c r="D6" t="n">
-        <v>441069.0838853429</v>
+        <v>409051.5989431113</v>
       </c>
       <c r="E6" t="n">
-        <v>190886.3107017605</v>
+        <v>8813.33088457011</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091159</v>
+        <v>516298.7725091156</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091159</v>
+        <v>516298.7725091157</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091159</v>
+        <v>516298.772509116</v>
       </c>
       <c r="I6" t="n">
         <v>516298.7725091158</v>
       </c>
       <c r="J6" t="n">
-        <v>348693.5946991332</v>
+        <v>348693.594699133</v>
       </c>
       <c r="K6" t="n">
-        <v>467188.6798030612</v>
+        <v>516298.7725091158</v>
       </c>
       <c r="L6" t="n">
+        <v>516298.772509116</v>
+      </c>
+      <c r="M6" t="n">
+        <v>383691.4787801889</v>
+      </c>
+      <c r="N6" t="n">
+        <v>516298.7725091158</v>
+      </c>
+      <c r="O6" t="n">
         <v>516298.7725091159</v>
       </c>
-      <c r="M6" t="n">
-        <v>431243.7445736037</v>
-      </c>
-      <c r="N6" t="n">
-        <v>516298.7725091157</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>516298.7725091156</v>
-      </c>
-      <c r="P6" t="n">
-        <v>516298.7725091159</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757583</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022534</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022534</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022534</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>128.8091592697984</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>186.9212595420271</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.278945876605</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193766</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>50.44830449390332</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>353.0630604443122</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>65.34763052153002</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>118.0986533615257</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.3258605297786</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>81.85623502202276</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>88.71226382522406</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55.41442581383487</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,13 +29286,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,22 +29325,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.04587304951615e-12</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,13 +32317,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M33" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33740,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34141,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578695</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>562.7107934893642</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396407</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35416,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409631</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M33" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37388,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367749</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2520700.201024466</v>
+        <v>2516563.043774314</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9244120.220626455</v>
+        <v>9244120.220626451</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.7617820786558</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>311.0096761768081</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>29.80524547150853</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81298529739924</v>
+        <v>364.9717650333373</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>36.2099418980436</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>144.8586974472236</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>325.0198107196887</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>266.7331670745531</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542877</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.8127283073657</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.87435055577367</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>18.50276072356668</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>63.8415564125923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.02356321678085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H25" t="n">
-        <v>131.6329842920045</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>160.9888698962426</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>23.62554568141267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>145.9348656155987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>132.2740511637357</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.689549231437</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>709.7270322910251</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295559</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005929</v>
+        <v>969.0505699079566</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078022</v>
+        <v>800.1143869800497</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665687</v>
+        <v>649.997747567714</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>502.0846539853209</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>355.1947064874105</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>187.2082417956891</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>2389.412917877717</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="X4" t="n">
-        <v>2161.423366979699</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="Y4" t="n">
-        <v>1940.630787836169</v>
+        <v>1150.699034738196</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.3216348137587</v>
+        <v>1462.856840871425</v>
       </c>
       <c r="C5" t="n">
-        <v>861.3216348137587</v>
+        <v>1093.894323931013</v>
       </c>
       <c r="D5" t="n">
-        <v>503.0559362070082</v>
+        <v>735.6286253242624</v>
       </c>
       <c r="E5" t="n">
-        <v>117.2676836087639</v>
+        <v>735.6286253242624</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137587</v>
+        <v>1462.856840871425</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1599.870421187584</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1599.870421187584</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1376.89194038232</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1087.773602886158</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>833.0891146802707</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>833.0891146802707</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X7" t="n">
-        <v>833.0891146802707</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.0891146802707</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1118.442187461269</v>
+        <v>1844.676600992465</v>
       </c>
       <c r="C8" t="n">
-        <v>749.4796705208573</v>
+        <v>1475.714084052053</v>
       </c>
       <c r="D8" t="n">
-        <v>391.2139719141068</v>
+        <v>1117.448385445303</v>
       </c>
       <c r="E8" t="n">
-        <v>391.2139719141068</v>
+        <v>731.6601328470583</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>320.6742280574508</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525391</v>
+        <v>2231.276441056586</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143486</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458206</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>716.59835516575</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>547.6621722378432</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255074</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431143</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452039</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1403.301950067057</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1403.301950067057</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.884780030097</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>885.8952291320793</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885492</v>
+        <v>898.2468199959898</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2103.250070178705</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1814.174843522903</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>300.0149148245539</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.9025067654818</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1089.917939501689</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>920.9817565737817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>770.8651171614459</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>622.9520235790528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>476.0620760811424</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
-        <v>308.8659767960224</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,46 +6229,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1814.846060413294</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421608</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>199.7675539570408</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,49 +6694,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2049.653590320296</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1760.578363664494</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1505.893875458607</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1216.476705421646</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>988.4871545236284</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780629</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>124.5310997715146</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>268.0202376130243</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H25" t="n">
-        <v>8.661728554219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>71.47058471168958</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>34.97276993489209</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814965.3661991094</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>814965.3661991094</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448202</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448201</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26340,22 +26340,22 @@
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26435,19 +26435,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732098</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.1846328077</v>
+        <v>-705700.1846328082</v>
       </c>
       <c r="C6" t="n">
-        <v>409051.5989431116</v>
+        <v>409051.5989431115</v>
       </c>
       <c r="D6" t="n">
-        <v>409051.5989431113</v>
+        <v>409051.5989431118</v>
       </c>
       <c r="E6" t="n">
-        <v>8813.33088457011</v>
+        <v>8465.951630213265</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091156</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.772509116</v>
+        <v>515951.3932547586</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="J6" t="n">
-        <v>348693.594699133</v>
+        <v>348346.2154447761</v>
       </c>
       <c r="K6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547587</v>
       </c>
       <c r="L6" t="n">
-        <v>516298.772509116</v>
+        <v>515951.3932547587</v>
       </c>
       <c r="M6" t="n">
-        <v>383691.4787801889</v>
+        <v>383344.0995258323</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547587</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091159</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091156</v>
+        <v>515951.3932547585</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>186.9212595420271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>38.23129254060495</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>117.4462636836203</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193766</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>353.0630604443122</v>
+        <v>41.90428070837413</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>65.34763052153002</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181353</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>81.85623502202276</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>144.8145356984008</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193754</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>55.41442581383487</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29286,13 +29286,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,22 +29325,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04587304951615e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215479</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977099</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409631</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2516563.043774314</v>
+        <v>2518323.574077099</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>311.0096761768081</v>
+        <v>9.991123614402589</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>29.80524547150853</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>249.3387099494851</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>364.9717650333373</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>266.7331670745531</v>
+        <v>288.1806164064256</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542877</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>92.87435055577367</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>254.0326278306816</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.4649598217091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>969.0505699079566</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>800.1143869800497</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>649.997747567714</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>502.0846539853209</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>355.1947064874105</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>187.2082417956891</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.699034738196</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1150.699034738196</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1150.699034738196</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1462.856840871425</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>1093.894323931013</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="D5" t="n">
-        <v>735.6286253242624</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>735.6286253242624</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190807</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847236</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847236</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1852.996172847236</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1462.856840871425</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>143.6627691908467</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380217</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074498</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992465</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052053</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.448385445303</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="E8" t="n">
-        <v>731.6601328470583</v>
+        <v>1123.757016247814</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574508</v>
+        <v>712.7711114582066</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800315</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056586</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056586</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056586</v>
+        <v>1878.50778578647</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143486</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458206</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.59835516575</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378432</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255074</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431143</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452039</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
         <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959898</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6425904082686</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.250070178705</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.174843522903</v>
+        <v>1720.862466540123</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.490355317016</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.073185280056</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.083634382038</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.2910552385083</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>198.0274703142544</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589434</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878337</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154983</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780629</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>124.5310997715146</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864911</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="3">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448201</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448202</v>
@@ -26325,13 +26325,13 @@
         <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26340,10 +26340,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
@@ -26352,10 +26352,10 @@
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618636</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26447,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.1846328082</v>
+        <v>-705700.184632808</v>
       </c>
       <c r="C6" t="n">
-        <v>409051.5989431115</v>
+        <v>409051.5989431117</v>
       </c>
       <c r="D6" t="n">
-        <v>409051.5989431118</v>
+        <v>409051.5989431117</v>
       </c>
       <c r="E6" t="n">
-        <v>8465.951630213265</v>
+        <v>8778.592959134112</v>
       </c>
       <c r="F6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836797</v>
       </c>
       <c r="G6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.03458368</v>
       </c>
       <c r="H6" t="n">
-        <v>515951.3932547586</v>
+        <v>516264.0345836797</v>
       </c>
       <c r="I6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="J6" t="n">
-        <v>348346.2154447761</v>
+        <v>348658.8567736975</v>
       </c>
       <c r="K6" t="n">
-        <v>515951.3932547587</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="L6" t="n">
-        <v>515951.3932547587</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="M6" t="n">
-        <v>383344.0995258323</v>
+        <v>383656.7408547534</v>
       </c>
       <c r="N6" t="n">
-        <v>515951.3932547587</v>
+        <v>516264.03458368</v>
       </c>
       <c r="O6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="P6" t="n">
-        <v>515951.3932547585</v>
+        <v>516264.03458368</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000392</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996088</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>38.23129254060495</v>
+        <v>339.2498451030104</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117.4462636836203</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>105.3443316711978</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>41.90428070837413</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181353</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>144.8145356984008</v>
+        <v>123.3670863665284</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193754</v>
+        <v>115.325851919376</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767384</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168762</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168762</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34471,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530518</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637952</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681176</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313186</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423492</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637952</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215479</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977099</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38119,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
